--- a/artefatos/17 - Análise de Eventos.xlsx
+++ b/artefatos/17 - Análise de Eventos.xlsx
@@ -301,13 +301,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -319,6 +319,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -336,33 +363,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,7 +636,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -647,7 +647,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,34 +666,34 @@
   <sheetData>
     <row r="1" spans="2:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="14" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
@@ -709,10 +709,10 @@
       <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="14"/>
+      <c r="K3" s="23"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -734,7 +734,7 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="12"/>
       <c r="D5" s="2">
         <v>2</v>
@@ -752,7 +752,7 @@
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="12"/>
       <c r="D6" s="2">
         <v>3</v>
@@ -770,7 +770,7 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="12" t="s">
         <v>37</v>
       </c>
@@ -782,15 +782,15 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="13"/>
       <c r="D8" s="2">
         <v>5</v>
@@ -800,15 +800,15 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -830,7 +830,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="12"/>
       <c r="D10" s="2">
         <v>7</v>
@@ -848,7 +848,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="12"/>
       <c r="D11" s="2">
         <v>8</v>
@@ -866,7 +866,7 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="13"/>
       <c r="D12" s="2">
         <v>9</v>
@@ -884,7 +884,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -906,7 +906,7 @@
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="12"/>
       <c r="D14" s="2">
         <v>11</v>
@@ -924,7 +924,7 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="12"/>
       <c r="D15" s="2">
         <v>12</v>
@@ -942,7 +942,7 @@
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="13"/>
       <c r="D16" s="2">
         <v>13</v>
@@ -960,7 +960,7 @@
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -982,7 +982,7 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="12"/>
       <c r="D18" s="2">
         <v>15</v>
@@ -1000,7 +1000,7 @@
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="12"/>
       <c r="D19" s="2">
         <v>16</v>
@@ -1018,7 +1018,7 @@
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="13"/>
       <c r="D20" s="2">
         <v>17</v>
@@ -1037,12 +1037,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C13:C16"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="D2:D3"/>
@@ -1052,6 +1046,12 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
